--- a/ListaPilotoAluno.xlsx
+++ b/ListaPilotoAluno.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">  Prefeitura Municipal de Itaquaquecetuba</t>
   </si>
@@ -49,42 +49,6 @@
     <t>Heitor Natanael Santos de Oliveira</t>
   </si>
   <si>
-    <t>120982579-X</t>
-  </si>
-  <si>
-    <t>122702314-5</t>
-  </si>
-  <si>
-    <t>123308545-1</t>
-  </si>
-  <si>
-    <t>121215536-1</t>
-  </si>
-  <si>
-    <t>122702262-1</t>
-  </si>
-  <si>
-    <t>124027208-X</t>
-  </si>
-  <si>
-    <t>123207350-7</t>
-  </si>
-  <si>
-    <t>123381199-X</t>
-  </si>
-  <si>
-    <t>123276800-5</t>
-  </si>
-  <si>
-    <t>122701879-4</t>
-  </si>
-  <si>
-    <t>123436698-8</t>
-  </si>
-  <si>
-    <t>120982370-6</t>
-  </si>
-  <si>
     <t>Samuel Alencar Felix</t>
   </si>
   <si>
@@ -124,43 +88,19 @@
     <t>Heitor Henrique Alves Santos</t>
   </si>
   <si>
-    <t>122177494-3</t>
-  </si>
-  <si>
     <t>Arthur Corrêa de Souza</t>
   </si>
   <si>
-    <t>122882307-8</t>
-  </si>
-  <si>
     <t>Rayssa Lorena de Souza do Amaral</t>
   </si>
   <si>
-    <t>123166167-7</t>
-  </si>
-  <si>
     <t>Nathan Souza Martins</t>
   </si>
   <si>
-    <t>122239443-1</t>
-  </si>
-  <si>
-    <t>124036864 1</t>
-  </si>
-  <si>
-    <t>124060217 0</t>
-  </si>
-  <si>
     <t>Heitor Santos Aguado</t>
   </si>
   <si>
     <t>Valentina Bispo Santana</t>
-  </si>
-  <si>
-    <t>124209354-0</t>
-  </si>
-  <si>
-    <t>121791960-0</t>
   </si>
   <si>
     <t>Brenda Mikaelly Castro Pimentel</t>
@@ -173,49 +113,22 @@
     <t>Jean Arthur da Silva Azevedo</t>
   </si>
   <si>
-    <t>122559623-3</t>
-  </si>
-  <si>
     <t>Lívia dos Santos Capodeferro</t>
   </si>
   <si>
     <t>Giulia Amanayara Ribeiro Reis</t>
   </si>
   <si>
-    <t>121923748-6</t>
-  </si>
-  <si>
     <t>Ana Lara Marques de Lima</t>
   </si>
   <si>
-    <t>124275399-0</t>
-  </si>
-  <si>
     <t>Gabriel Pereira Silva Fadeli</t>
   </si>
   <si>
-    <t>123051401-3</t>
-  </si>
-  <si>
     <t>Miguel Marçal de Oliveira</t>
   </si>
   <si>
-    <t>124466703-1</t>
-  </si>
-  <si>
-    <t>SIM</t>
-  </si>
-  <si>
     <t>Heitor Andrade Ferreira dos Santos</t>
-  </si>
-  <si>
-    <t>123171115-2</t>
-  </si>
-  <si>
-    <t>123100782-5</t>
-  </si>
-  <si>
-    <t>124027256-X</t>
   </si>
   <si>
     <t xml:space="preserve">                                       </t>
@@ -943,7 +856,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +901,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -1038,7 +951,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -1052,23 +965,23 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -1091,10 +1004,10 @@
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="44"/>
@@ -1137,14 +1050,12 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12">
         <v>43442</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
@@ -1157,14 +1068,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C13" s="18">
         <v>43361</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1177,14 +1086,12 @@
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C14" s="19">
         <v>43533</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
@@ -1197,14 +1104,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="21">
         <v>43277</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1217,14 +1122,12 @@
         <v>5</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C16" s="21">
         <v>43468</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="22"/>
@@ -1237,14 +1140,12 @@
         <v>6</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C17" s="27">
         <v>43283</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="D17" s="28"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -1257,14 +1158,12 @@
         <v>7</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18">
         <v>43490</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -1282,9 +1181,7 @@
       <c r="C19" s="41">
         <v>43343</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>65</v>
-      </c>
+      <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -1297,14 +1194,12 @@
         <v>9</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C20" s="42">
         <v>43180</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>44</v>
-      </c>
+      <c r="D20" s="28"/>
       <c r="E20" s="20"/>
       <c r="F20" s="25"/>
       <c r="G20" s="16"/>
@@ -1317,14 +1212,12 @@
         <v>10</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21" s="21">
         <v>43330</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -1337,14 +1230,12 @@
         <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C22" s="12">
         <v>43488</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="D22" s="13"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -1357,14 +1248,12 @@
         <v>12</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C23" s="21">
         <v>43380</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -1377,14 +1266,12 @@
         <v>13</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C24" s="12">
         <v>43335</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="56"/>
@@ -1397,14 +1284,12 @@
         <v>14</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C25" s="27">
         <v>43293</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="D25" s="28"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="53"/>
@@ -1417,14 +1302,12 @@
         <v>15</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C26" s="21">
         <v>43298</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
       <c r="G26" s="20"/>
@@ -1437,14 +1320,12 @@
         <v>16</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C27" s="27">
         <v>43482</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>61</v>
-      </c>
+      <c r="D27" s="28"/>
       <c r="E27" s="33"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -1457,14 +1338,12 @@
         <v>17</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C28" s="18">
         <v>43305</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="14"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -1477,14 +1356,12 @@
         <v>18</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" s="21">
         <v>43272</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="14"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -1497,14 +1374,12 @@
         <v>19</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C30" s="21">
         <v>43268</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -1517,14 +1392,12 @@
         <v>20</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C31" s="12">
         <v>43392</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="14"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
@@ -1537,14 +1410,12 @@
         <v>21</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C32" s="18">
         <v>43476</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="D32" s="23"/>
       <c r="E32" s="14"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -1557,14 +1428,12 @@
         <v>22</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C33" s="12">
         <v>43548</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="16"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -1577,14 +1446,12 @@
         <v>23</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C34" s="21">
         <v>43536</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="D34" s="13"/>
       <c r="E34" s="14"/>
       <c r="F34" s="16"/>
       <c r="G34" s="22"/>
@@ -1597,14 +1464,12 @@
         <v>24</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C35" s="21">
         <v>43370</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="D35" s="13"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -1617,36 +1482,30 @@
         <v>25</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C36" s="30">
         <v>43246</v>
       </c>
-      <c r="D36" s="31" t="s">
-        <v>48</v>
-      </c>
+      <c r="D36" s="31"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C37" s="35">
         <v>43330</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>64</v>
-      </c>
+      <c r="D37" s="34"/>
       <c r="E37" s="34"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
@@ -1659,14 +1518,12 @@
         <v>27</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C38" s="37">
         <v>43290</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="10"/>
       <c r="G38" s="47"/>
@@ -1679,14 +1536,12 @@
         <v>28</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C39" s="40">
         <v>43426</v>
       </c>
-      <c r="D39" s="39" t="s">
-        <v>14</v>
-      </c>
+      <c r="D39" s="39"/>
       <c r="E39" s="38"/>
       <c r="F39" s="6"/>
       <c r="G39" s="9"/>
